--- a/tests/financial_calculations.xlsx
+++ b/tests/financial_calculations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Sample_Function_Call\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\FinancialCalculations\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700FCA00-412C-4570-B31C-DFDDFC71531A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE14E6E-C7F0-475D-856E-57C6504DE4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2FC359D8-ED62-4E60-AC8A-E682B0C526C5}"/>
   </bookViews>
@@ -50,13 +50,13 @@
     <t>future_value</t>
   </si>
   <si>
-    <t>current * (1 + rate) * year</t>
-  </si>
-  <si>
     <t>final_value</t>
   </si>
   <si>
     <t>future_value + 10</t>
+  </si>
+  <si>
+    <t>current * (1 + rate) ** year</t>
   </si>
 </sst>
 </file>
@@ -432,13 +432,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,15 +470,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/tests/financial_calculations.xlsx
+++ b/tests/financial_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\FinancialCalculations\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE14E6E-C7F0-475D-856E-57C6504DE4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CC6938-548B-4967-8C5D-8E3334C7FB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2FC359D8-ED62-4E60-AC8A-E682B0C526C5}"/>
   </bookViews>
@@ -56,7 +56,7 @@
     <t>future_value + 10</t>
   </si>
   <si>
-    <t>current * (1 + rate) ** year</t>
+    <t>current * (1 + rate) * year</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/financial_calculations.xlsx
+++ b/tests/financial_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\FinancialCalculations\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CC6938-548B-4967-8C5D-8E3334C7FB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96D85E4-F3D0-417B-AC3D-2B160EB45198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2FC359D8-ED62-4E60-AC8A-E682B0C526C5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>current</t>
   </si>
@@ -53,10 +53,64 @@
     <t>final_value</t>
   </si>
   <si>
-    <t>future_value + 10</t>
-  </si>
-  <si>
     <t>current * (1 + rate) * year</t>
+  </si>
+  <si>
+    <t>future_value ^ 2</t>
+  </si>
+  <si>
+    <t>new_year</t>
+  </si>
+  <si>
+    <t>year ^ 5</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -429,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA74E868-228F-4472-A161-9D90B41BAE45}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +532,143 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
